--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Tnfsf13b-Tnfrsf13c.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Tnfsf13b-Tnfrsf13c.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Tnfsf13b</t>
   </si>
   <si>
     <t>Tnfrsf13c</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,43 +522,43 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.31535411103481</v>
+        <v>1.429365</v>
       </c>
       <c r="H2">
-        <v>1.31535411103481</v>
+        <v>4.288095</v>
       </c>
       <c r="I2">
-        <v>0.5938178031459058</v>
+        <v>0.327844155149115</v>
       </c>
       <c r="J2">
-        <v>0.5938178031459058</v>
+        <v>0.327844155149115</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.777549861245347</v>
+        <v>0.832688</v>
       </c>
       <c r="N2">
-        <v>0.777549861245347</v>
+        <v>2.498064</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +567,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>1.022753406523613</v>
+        <v>1.19021508312</v>
       </c>
       <c r="R2">
-        <v>1.022753406523613</v>
+        <v>10.71193574808</v>
       </c>
       <c r="S2">
-        <v>0.5938178031459058</v>
+        <v>0.327844155149115</v>
       </c>
       <c r="T2">
-        <v>0.5938178031459058</v>
+        <v>0.327844155149115</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,185 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1.643401666666666</v>
+      </c>
+      <c r="H3">
+        <v>4.930204999999999</v>
+      </c>
+      <c r="I3">
+        <v>0.3769363535408946</v>
+      </c>
+      <c r="J3">
+        <v>0.3769363535408946</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0.832688</v>
+      </c>
+      <c r="N3">
+        <v>2.498064</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1.368440847013333</v>
+      </c>
+      <c r="R3">
+        <v>12.31596762312</v>
+      </c>
+      <c r="S3">
+        <v>0.3769363535408946</v>
+      </c>
+      <c r="T3">
+        <v>0.3769363535408946</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1.256465666666666</v>
+      </c>
+      <c r="H4">
+        <v>3.769397</v>
+      </c>
+      <c r="I4">
+        <v>0.2881873593953978</v>
+      </c>
+      <c r="J4">
+        <v>0.2881873593953979</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0.832688</v>
+      </c>
+      <c r="N4">
+        <v>2.498064</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1.046243883045333</v>
+      </c>
+      <c r="R4">
+        <v>9.416194947407998</v>
+      </c>
+      <c r="S4">
+        <v>0.2881873593953978</v>
+      </c>
+      <c r="T4">
+        <v>0.2881873593953979</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0.8997261780140799</v>
-      </c>
-      <c r="H3">
-        <v>0.8997261780140799</v>
-      </c>
-      <c r="I3">
-        <v>0.4061821968540941</v>
-      </c>
-      <c r="J3">
-        <v>0.4061821968540941</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0.777549861245347</v>
-      </c>
-      <c r="N3">
-        <v>0.777549861245347</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>0.6995819648736542</v>
-      </c>
-      <c r="R3">
-        <v>0.6995819648736542</v>
-      </c>
-      <c r="S3">
-        <v>0.4061821968540941</v>
-      </c>
-      <c r="T3">
-        <v>0.4061821968540941</v>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.03065933333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.091978</v>
+      </c>
+      <c r="I5">
+        <v>0.00703213191459268</v>
+      </c>
+      <c r="J5">
+        <v>0.007032131914592681</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.832688</v>
+      </c>
+      <c r="N5">
+        <v>2.498064</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>0.02552965895466667</v>
+      </c>
+      <c r="R5">
+        <v>0.229766930592</v>
+      </c>
+      <c r="S5">
+        <v>0.00703213191459268</v>
+      </c>
+      <c r="T5">
+        <v>0.007032131914592681</v>
       </c>
     </row>
   </sheetData>
